--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376546.9572276621</v>
+        <v>373308.7577998815</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2114249.189782365</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179435</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901774.857294663</v>
+        <v>5117112.456859927</v>
       </c>
     </row>
     <row r="11">
@@ -668,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G3" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>7.256111626157765</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1224,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1330,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T10" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1458,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>34.11888750173132</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.5704967621155</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,28 +1609,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1695,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H15" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1850,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1886,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.87161743162455</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,61 +2095,61 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>26.18187459043808</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>49.08651049666562</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>82.69355372315668</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4287699906872</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>116.325098768111</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2752,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2880,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>33.40223595286088</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="31">
@@ -2992,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,64 +3040,64 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.778646031951277</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3120,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>88.613962620377</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>117.6168938316385</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,67 +3265,67 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3360,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>70.64856914772001</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>40.58013988212374</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3424,52 +3426,52 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>92.95466700954542</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3597,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,19 +3632,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>55.17086470746972</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>170.6554636898984</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3700,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.30348359856715</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>208.2792470398066</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3831,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>6.458851966364488</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3876,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>4.089654531614567</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3898,61 +3900,61 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4059,19 +4061,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>137.0424786983366</v>
       </c>
       <c r="F45" t="n">
-        <v>39.58387696184059</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>108.260178376266</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>68.2764642733967</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T2" t="n">
-        <v>68.2764642733967</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U2" t="n">
-        <v>68.2764642733967</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V2" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W2" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F3" t="n">
-        <v>118.3517937444931</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M3" t="n">
-        <v>3.166710156947247</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R4" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C5" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y5" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="F6" t="n">
-        <v>123.8719851183408</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H7" t="n">
-        <v>25.66114634470771</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I7" t="n">
-        <v>25.66114634470771</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N8" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>123.1178524655551</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>83.13413836268582</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T8" t="n">
-        <v>43.15042425981653</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U8" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V8" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W8" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X8" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T9" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R10" t="n">
-        <v>50.47982994280417</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N11" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>108.260178376266</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S11" t="n">
-        <v>68.2764642733967</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T11" t="n">
-        <v>28.29275017052741</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F12" t="n">
-        <v>123.8719851183408</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G12" t="n">
-        <v>83.88827101547153</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O12" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.46354404567346</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C13" t="n">
-        <v>90.46354404567346</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D13" t="n">
-        <v>90.46354404567346</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E13" t="n">
-        <v>90.46354404567346</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F13" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>90.46354404567346</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W13" t="n">
-        <v>90.46354404567346</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X13" t="n">
-        <v>90.46354404567346</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.46354404567346</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C14" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D14" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E14" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>95.20412760976917</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>55.22041350689989</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S14" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T14" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U14" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V14" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W14" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X14" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y14" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F15" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G15" t="n">
-        <v>78.36807964162378</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H15" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>3.530573790338288</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>45.45613755060546</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>89.14698820604177</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>137.2644294849704</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>92.68647758675968</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>48.10852568854899</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>960.7588564629629</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.7812428759814</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C21" t="n">
-        <v>136.7812428759814</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>639.887947679175</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>411.6643294155641</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>411.6643294155641</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.9965798960495</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="22">
@@ -5935,19 +5937,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.8099852548154</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C24" t="n">
-        <v>102.8099852548154</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D24" t="n">
-        <v>102.8099852548154</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E24" t="n">
-        <v>102.8099852548154</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F24" t="n">
-        <v>102.8099852548154</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G24" t="n">
-        <v>102.8099852548154</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H24" t="n">
-        <v>102.8099852548154</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6077,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
         <v>712.019119383956</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>310.5702840197694</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y24" t="n">
-        <v>102.8099852548154</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="25">
@@ -6178,10 +6180,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>718.7806050553886</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>962.2293816994886</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6308,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
         <v>234.810827406191</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>846.5570557448675</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U27" t="n">
-        <v>846.5570557448675</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V27" t="n">
-        <v>846.5570557448675</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>603.1082791007675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>395.2567788952347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
         <v>829.5248650203655</v>
@@ -6400,34 +6402,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>874.2758585542716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>191.7516008032143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>191.7516008032143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>191.7516008032143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>191.7516008032143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>399.5118995681682</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>399.5118995681682</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>191.7516008032143</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6640,10 +6642,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.4883050441255</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
         <v>656.0584510084244</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>845.2522122463549</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>845.2522122463549</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>845.2522122463549</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>610.1001040146123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>610.1001040146123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>402.2486038090794</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y33" t="n">
-        <v>194.4883050441255</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="C35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>547.0914794406409</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>923.0671152256627</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>715.3068164607089</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>634.6640077999109</v>
+        <v>431.5555407037955</v>
       </c>
       <c r="V39" t="n">
-        <v>399.5118995681682</v>
+        <v>431.5555407037955</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>431.5555407037955</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="40">
@@ -7348,10 +7350,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
         <v>19.28114311021272</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.3003572948082</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>229.3003572948082</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>229.3003572948082</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>229.3003572948082</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>104.1029673515831</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>707.0094349923255</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>468.1548961435668</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>468.1548961435668</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>229.8642697601892</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C42" t="n">
-        <v>229.8642697601892</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D42" t="n">
-        <v>229.8642697601892</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E42" t="n">
-        <v>229.8642697601892</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F42" t="n">
-        <v>229.8642697601892</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G42" t="n">
-        <v>223.3401768648716</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>109.9710412724509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>174.1654147507498</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>408.2667482764182</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>642.3680818020865</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>876.4694153277549</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>844.6944443939699</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>844.6944443939699</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>844.6944443939699</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>844.6944443939699</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>844.6944443939699</v>
+        <v>959.9261913372882</v>
       </c>
       <c r="W42" t="n">
-        <v>605.8399055452112</v>
+        <v>716.4774146931882</v>
       </c>
       <c r="X42" t="n">
-        <v>605.8399055452112</v>
+        <v>508.6259144876553</v>
       </c>
       <c r="Y42" t="n">
-        <v>398.0796067802573</v>
+        <v>300.8656157227014</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>838.6458083585264</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>877.8338465507486</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>921.5246972061849</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.15042425981653</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>43.15042425981653</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>43.15042425981653</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>43.15042425981653</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>43.15042425981653</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>43.15042425981653</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>43.15042425981653</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>81.54278654139161</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>81.54278654139161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>120.7308247336138</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>118.3517937444931</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>78.36807964162378</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>43.15042425981653</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>43.15042425981653</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X44" t="n">
-        <v>43.15042425981653</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.15042425981653</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>158.3355078473624</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C45" t="n">
-        <v>158.3355078473624</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D45" t="n">
-        <v>118.3517937444931</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="E45" t="n">
-        <v>118.3517937444931</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F45" t="n">
-        <v>78.36807964162378</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>38.38436553875449</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>3.920842809732961</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>3.920842809732961</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>42.35474834916943</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>81.54278654139161</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>120.7308247336138</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>158.3355078473624</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O45" t="n">
-        <v>158.3355078473624</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>158.3355078473624</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>158.3355078473624</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y45" t="n">
-        <v>158.3355078473624</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
@@ -7994,7 +7996,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>258.0743794427063</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>268.0827398194126</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>258.0743794427063</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N12" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>176.5389081776</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10905,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1360004134264</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,22 +11144,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>168.7468799981477</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>269.2175241529953</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>177.4253159361996</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>169.3262404810591</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22556,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>389.9444168792442</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,10 +22606,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>324.3661891039686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22635,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G3" t="n">
-        <v>103.2246296614793</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>170.0372797510117</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22781,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>347.8683628354914</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>379.9537176646994</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22872,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>162.0397025894549</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22957,13 +22959,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>199.4461012748567</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>389.9444168792442</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>115.0036391131605</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23112,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>103.2246296614793</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23218,19 +23220,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>376.4311200835105</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>226.4708732943921</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23346,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>110.9503248916526</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>120.8505512608157</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G13" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23473,13 +23475,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>251.3471928761457</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23495,28 +23497,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>392.3865480417584</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>169.4361926244048</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23583,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H15" t="n">
-        <v>77.36996540850728</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23738,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>120.9881997240699</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>61.28621672101858</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.7942029044125</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>146.6038018839531</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>86.05356964605838</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>151.078218198156</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24303,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>6.703079128258395</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,22 +24338,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>60.34421521279029</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24418,13 +24420,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>164.3376445463983</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>384.4284425830174</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>83.83962992671059</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24640,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24731,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24768,10 +24770,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>111.666976440523</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24819,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="31">
@@ -24880,13 +24882,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>176.9916737032986</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24917,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>407.5240914831838</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24968,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25008,16 +25010,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>48.72955454283364</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>54.06627727219934</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25053,13 +25055,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25248,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>181.0464140131996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>165.1928453213537</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25394,7 +25396,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25409,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25436,13 +25438,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>116.0654025766999</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25485,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>170.7705173735051</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>81.03951947102121</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25588,13 +25590,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>132.9899077786023</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>198.5967987019048</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25673,25 +25675,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>112.774975257142</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25719,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>130.8846651968462</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25764,13 +25766,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>228.7109326178107</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>342.2575625303454</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>292.8867796421457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25947,19 +25949,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>20.60260175706432</v>
       </c>
       <c r="F45" t="n">
-        <v>105.4853354315433</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>78.11655673476514</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26029,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>152.2496201461753</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770134</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770131</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495310.3319091872</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355279.4796042946</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="C2" t="n">
-        <v>65132.53968261261</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="D2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="E2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="F2" t="n">
-        <v>65132.53968261261</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="G2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="L2" t="n">
         <v>91388.36989223282</v>
@@ -26347,13 +26349,13 @@
         <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="O2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.36989223285</v>
-      </c>
-      <c r="O2" t="n">
-        <v>90796.17800832073</v>
-      </c>
-      <c r="P2" t="n">
-        <v>65132.5396826126</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>5965.632368449412</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>5965.63236844941</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
@@ -26451,13 +26453,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8488.886639836433</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>5965.632368449411</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9867.139995800368</v>
+        <v>8626.861344417164</v>
       </c>
       <c r="C6" t="n">
-        <v>23132.60759488329</v>
+        <v>23416.56734866137</v>
       </c>
       <c r="D6" t="n">
-        <v>23132.60759488328</v>
+        <v>23416.56734866137</v>
       </c>
       <c r="E6" t="n">
-        <v>56760.20759488329</v>
+        <v>57044.16734866137</v>
       </c>
       <c r="F6" t="n">
-        <v>56760.20759488329</v>
+        <v>57044.16734866137</v>
       </c>
       <c r="G6" t="n">
-        <v>55797.54779918657</v>
+        <v>14225.15515865643</v>
       </c>
       <c r="H6" t="n">
-        <v>15067.02308880372</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912876</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="J6" t="n">
-        <v>57830.70615532492</v>
+        <v>56640.67194913785</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912872</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="L6" t="n">
         <v>68187.59005912875</v>
@@ -26555,13 +26557,13 @@
         <v>68187.59005912875</v>
       </c>
       <c r="N6" t="n">
+        <v>68187.59005912875</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20807.71184166495</v>
+      </c>
+      <c r="P6" t="n">
         <v>68187.59005912878</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67930.15896609981</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56760.20759488328</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N24" t="n">
         <v>226.4350751681936</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36674,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37625,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>86.04614936844587</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37862,22 +37864,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>30.19250021827349</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>37.98452839772582</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.58387696184059</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>37.98452839772582</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373308.7577998815</v>
+        <v>267779.7902310983</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782365</v>
+        <v>925399.3994514374</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117112.456859927</v>
+        <v>5764697.373081758</v>
       </c>
     </row>
     <row r="11">
@@ -661,28 +661,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>62.43486741948623</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50.46697834767995</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>26.92232807701203</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>38.12502610536669</v>
+        <v>140.2861087592617</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>16.93162886246722</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="G8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>38.87161743162454</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1332,22 +1332,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>38.87161743162455</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1457,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="F12" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1806,22 +1806,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1979,13 +1979,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>49.08651049666562</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>88.64014856619752</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2280,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,31 +2317,31 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>145.4287699906872</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2560,25 +2560,25 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>152.4080189407509</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,23 +2794,23 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.79900896488263</v>
+        <v>19.15541836171551</v>
       </c>
     </row>
     <row r="31">
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>58.39471844666272</v>
       </c>
       <c r="G32" t="n">
-        <v>7.778646031951277</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>88.613962620377</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,70 +3268,70 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>100.8824071085284</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3362,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>40.58013988212374</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,62 +3505,62 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>55.17086470746972</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,25 +3784,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>110.1951815550432</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>4.089654531614567</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>137.0424786983366</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4112,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.4370741486873</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>166.4370741486873</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>149.3344187320537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>166.4370741486873</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.4370741486873</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0185621377561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>90.91227510121089</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>134.6031257566472</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>176.5286895169144</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>176.5286895169144</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>82.34666575615842</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D5" t="n">
-        <v>176.5286895169144</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E5" t="n">
-        <v>176.5286895169144</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>149.3344187320537</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>104.756466833843</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.8626583413347</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C6" t="n">
-        <v>48.8626583413347</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>48.8626583413347</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>90.91227510121089</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>48.8626583413347</v>
+        <v>822.3540153497659</v>
       </c>
       <c r="U6" t="n">
-        <v>48.8626583413347</v>
+        <v>594.130397086155</v>
       </c>
       <c r="V6" t="n">
-        <v>48.8626583413347</v>
+        <v>594.130397086155</v>
       </c>
       <c r="W6" t="n">
-        <v>48.8626583413347</v>
+        <v>594.130397086155</v>
       </c>
       <c r="X6" t="n">
-        <v>48.8626583413347</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y6" t="n">
-        <v>48.8626583413347</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.4370741486873</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C8" t="n">
-        <v>166.4370741486873</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D8" t="n">
-        <v>166.4370741486873</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E8" t="n">
-        <v>166.4370741486873</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F8" t="n">
-        <v>149.3344187320537</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X8" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y8" t="n">
-        <v>166.4370741486873</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.530573790338288</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>3.530573790338288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>3.530573790338288</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>3.530573790338288</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>3.530573790338288</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.530573790338288</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.9507376187037</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C11" t="n">
-        <v>131.9507376187037</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D11" t="n">
-        <v>131.9507376187037</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E11" t="n">
-        <v>131.9507376187037</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F11" t="n">
-        <v>131.9507376187037</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G11" t="n">
-        <v>92.68647758675968</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>131.9507376187037</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>131.9507376187037</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V11" t="n">
-        <v>131.9507376187037</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W11" t="n">
-        <v>131.9507376187037</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X11" t="n">
-        <v>131.9507376187037</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.9507376187037</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E12" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>138.0185621377561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.68647758675968</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>48.10852568854899</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D14" t="n">
-        <v>48.10852568854899</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>92.68647758675968</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>92.68647758675968</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>92.68647758675968</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>92.68647758675968</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W14" t="n">
-        <v>92.68647758675968</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X14" t="n">
-        <v>92.68647758675968</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.68647758675968</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>90.91227510121089</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M15" t="n">
-        <v>132.8378388614781</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>137.2644294849704</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>137.2644294849704</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W15" t="n">
-        <v>137.2644294849704</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X15" t="n">
-        <v>137.2644294849704</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E17" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F17" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="18">
@@ -5600,37 +5600,37 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5840,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>639.887947679175</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>411.6643294155641</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>411.6643294155641</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W21" t="n">
-        <v>168.215552771464</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X21" t="n">
-        <v>168.215552771464</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5928,28 +5928,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>569.2254314512334</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C23" t="n">
-        <v>569.2254314512334</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D23" t="n">
-        <v>569.2254314512334</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E23" t="n">
-        <v>569.2254314512334</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F23" t="n">
-        <v>325.7766548071333</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G23" t="n">
-        <v>325.7766548071333</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H23" t="n">
-        <v>82.32787816303323</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X23" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y23" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>110.334904905842</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6180,19 +6180,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6314,10 +6314,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
         <v>712.019119383956</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="31">
@@ -6648,16 +6648,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>495.259035872464</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C32" t="n">
-        <v>495.259035872464</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D32" t="n">
-        <v>495.259035872464</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E32" t="n">
-        <v>495.259035872464</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F32" t="n">
-        <v>495.259035872464</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
         <v>31.35113235729608</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U32" t="n">
-        <v>738.7078125165641</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V32" t="n">
-        <v>738.7078125165641</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W32" t="n">
-        <v>738.7078125165641</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X32" t="n">
-        <v>495.259035872464</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y32" t="n">
-        <v>495.259035872464</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>486.9119902784999</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C33" t="n">
-        <v>312.4589609973729</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D33" t="n">
-        <v>312.4589609973729</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E33" t="n">
-        <v>312.4589609973729</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F33" t="n">
-        <v>312.4589609973729</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>118.5018269537981</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6788,13 +6788,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.1273272985679</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="34">
@@ -6891,10 +6891,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>547.0914794406409</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>372.6384501595139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>923.0671152256627</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y36" t="n">
-        <v>715.3068164607089</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7119,19 +7119,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C38" t="n">
+        <v>333.7844730889342</v>
+      </c>
+      <c r="D38" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>431.5555407037955</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>431.5555407037955</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>431.5555407037955</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>223.7040404982626</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
         <v>19.28114311021272</v>
@@ -7353,31 +7353,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>132.6502787026334</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6502787026334</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="D42" t="n">
-        <v>132.6502787026334</v>
+        <v>277.8780979331268</v>
       </c>
       <c r="E42" t="n">
-        <v>132.6502787026334</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F42" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V42" t="n">
-        <v>959.9261913372882</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W42" t="n">
-        <v>716.4774146931882</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X42" t="n">
-        <v>508.6259144876553</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="Y42" t="n">
-        <v>300.8656157227014</v>
+        <v>426.8125075943781</v>
       </c>
     </row>
     <row r="43">
@@ -7593,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
         <v>20.03527576299844</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>512.7568786610034</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M15" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,10 +9260,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,13 +9962,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10682,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10919,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N45" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,28 +22549,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>389.9444168792442</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>104.0983162303811</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22637,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,19 +22679,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22789,22 +22789,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>304.216063273003</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>379.9537176646994</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>162.0397025894549</v>
+        <v>59.87861993555995</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22959,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>389.9444168792442</v>
+        <v>186.6629199992865</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>127.7557820643452</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>187.0697646493503</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>174.4700052756681</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>376.4311200835105</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23345,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>127.7557820643452</v>
       </c>
       <c r="F12" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23472,16 +23472,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,10 +23512,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>180.1391513691656</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23554,7 +23554,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>94.91917273398457</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23585,13 +23585,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23740,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>257.4082506688596</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>151.078218198156</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>117.13283663728</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24168,13 +24168,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24341,7 +24341,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>60.34421521279029</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24448,25 +24448,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>164.3376445463983</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24499,16 +24499,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>64.75056867910476</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>99.28696422016873</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24624,7 +24624,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.6952108678958</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,22 +24682,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24727,10 +24727,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>175.8836868124217</v>
+        <v>186.5272774155889</v>
       </c>
     </row>
     <row r="31">
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>348.4813272950487</v>
       </c>
       <c r="G32" t="n">
-        <v>407.5240914831838</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>48.72955454283364</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.00696723134699</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25131,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>314.4203304066067</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,28 +25198,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25250,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25289,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>165.1928453213537</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>284.3390338194077</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25487,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>170.7705173735051</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25593,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,25 +25672,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>139.0167266006028</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>47.44989890035775</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>228.7109326178107</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>342.2575625303454</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>299.3870928771938</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25952,10 +25952,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>20.60260175706432</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -26000,10 +26000,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358671.2447770134</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358671.2447770131</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="C2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="D2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="E2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="F2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="G2" t="n">
         <v>91388.36989223282</v>
@@ -26337,13 +26337,13 @@
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="K2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="K2" t="n">
-        <v>91388.36989223282</v>
-      </c>
       <c r="L2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="M2" t="n">
         <v>91388.36989223282</v>
@@ -26352,10 +26352,10 @@
         <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.36989223283</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8626.861344417164</v>
+        <v>-58427.45209245945</v>
       </c>
       <c r="C6" t="n">
-        <v>23416.56734866137</v>
+        <v>22341.97943908829</v>
       </c>
       <c r="D6" t="n">
-        <v>23416.56734866137</v>
+        <v>22341.97943908827</v>
       </c>
       <c r="E6" t="n">
-        <v>57044.16734866137</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="F6" t="n">
-        <v>57044.16734866137</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="G6" t="n">
-        <v>14225.15515865643</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="H6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="J6" t="n">
-        <v>56640.67194913785</v>
+        <v>-7090.36316001798</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="L6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="M6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="N6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="O6" t="n">
-        <v>20807.71184166495</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="P6" t="n">
-        <v>68187.59005912878</v>
+        <v>55969.57943908829</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N3" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O6" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M15" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35968,10 +35968,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,10 +35980,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36208,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,7 +36922,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37402,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37639,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267779.7902310983</v>
+        <v>361972.0568565574</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514374</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764697.373081758</v>
+        <v>5117112.456859927</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.43486741948623</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>50.46697834767995</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,28 +940,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>140.2861087592617</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>220.2131257424249</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="10">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>208.2638363878125</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>56.91690033700354</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>38.12502610536669</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>102.3382270926889</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>132.8759660302687</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>89.66547645067541</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,11 +2083,11 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>8.064653731755067</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>88.64014856619752</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2280,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2490,55 +2490,55 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>241.0142888776591</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>152.4080189407509</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>241.0142888776591</v>
@@ -2809,55 +2809,55 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="S29" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.15541836171551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>58.39471844666272</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>98.22847700514947</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>100.8824071085284</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>97.76646051984092</v>
       </c>
       <c r="X36" t="n">
-        <v>62.86349518004438</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>70.34400780127524</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,22 +3587,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>21.7973599200313</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3675,46 +3675,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W41" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>110.1951815550432</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
-        <v>70.34400780127524</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>533.6469426057913</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W3" t="n">
-        <v>290.1981659616912</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X3" t="n">
-        <v>82.34666575615842</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y3" t="n">
-        <v>82.34666575615842</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>812.6742080953335</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>812.6742080953335</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>761.6974622895962</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y5" t="n">
-        <v>812.6742080953335</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178.5185981156682</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>178.5185981156682</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>822.3540153497659</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U6" t="n">
-        <v>594.130397086155</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>594.130397086155</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W6" t="n">
-        <v>594.130397086155</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X6" t="n">
-        <v>386.2788968806221</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y6" t="n">
-        <v>178.5185981156682</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>485.167420504237</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C8" t="n">
-        <v>485.167420504237</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D8" t="n">
-        <v>485.167420504237</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E8" t="n">
-        <v>485.167420504237</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6161971483371</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V8" t="n">
-        <v>728.6161971483371</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W8" t="n">
-        <v>728.6161971483371</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X8" t="n">
-        <v>728.6161971483371</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y8" t="n">
-        <v>485.167420504237</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.47235360622864</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C9" t="n">
-        <v>49.47235360622864</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D9" t="n">
-        <v>49.47235360622864</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X9" t="n">
-        <v>257.2326523711826</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y9" t="n">
-        <v>49.47235360622864</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>518.2486856454962</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="C11" t="n">
-        <v>518.2486856454962</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="D11" t="n">
-        <v>518.2486856454962</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="E11" t="n">
-        <v>518.2486856454962</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F11" t="n">
-        <v>274.7999090013961</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T11" t="n">
-        <v>728.6161971483371</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U11" t="n">
-        <v>728.6161971483371</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V11" t="n">
-        <v>728.6161971483371</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="W11" t="n">
-        <v>728.6161971483371</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X11" t="n">
-        <v>728.6161971483371</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="Y11" t="n">
-        <v>728.6161971483371</v>
+        <v>32.70321845405519</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>49.47235360622864</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>49.47235360622864</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>49.47235360622864</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6814290152826</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2326523711826</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X12" t="n">
-        <v>257.2326523711826</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>49.47235360622864</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.7806050553886</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C14" t="n">
-        <v>718.7806050553886</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D14" t="n">
-        <v>475.3318284112885</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E14" t="n">
-        <v>475.3318284112885</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F14" t="n">
-        <v>475.3318284112885</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U14" t="n">
-        <v>953.9655401424092</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V14" t="n">
-        <v>718.7806050553886</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W14" t="n">
-        <v>718.7806050553886</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X14" t="n">
-        <v>718.7806050553886</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y14" t="n">
-        <v>718.7806050553886</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>178.8501590306595</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M15" t="n">
-        <v>417.4543050195419</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V15" t="n">
-        <v>678.3417187247995</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W15" t="n">
-        <v>434.8929420806995</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0414418751666</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>366.1018663125844</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C17" t="n">
-        <v>366.1018663125844</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D17" t="n">
-        <v>366.1018663125844</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E17" t="n">
-        <v>366.1018663125844</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>366.1018663125844</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V17" t="n">
-        <v>366.1018663125844</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W17" t="n">
-        <v>366.1018663125844</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X17" t="n">
-        <v>366.1018663125844</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.1018663125844</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>439.5188066588198</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>860.4511411346975</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>497.8820279860555</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="19">
@@ -5703,7 +5703,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>517.4848137278872</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V20" t="n">
-        <v>517.4848137278872</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W20" t="n">
-        <v>517.4848137278872</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X20" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>439.5188066588198</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>280.2813516533643</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5837,13 +5837,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2696759935595</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="22">
@@ -5928,10 +5928,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>752.9257720901863</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C23" t="n">
-        <v>752.9257720901863</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D23" t="n">
-        <v>752.9257720901863</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E23" t="n">
-        <v>509.4769954460863</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F23" t="n">
-        <v>266.0282188019862</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G23" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X23" t="n">
-        <v>752.9257720901863</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y23" t="n">
-        <v>752.9257720901863</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,13 +6101,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
         <v>227.0414418751666</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6186,13 +6186,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>262.7299197543128</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>477.1596022224361</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6311,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W27" t="n">
-        <v>346.7339351357363</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X27" t="n">
-        <v>346.7339351357363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>346.7339351357363</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
         <v>19.28114311021272</v>
@@ -6414,22 +6414,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,25 +6484,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="T29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W29" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="T29" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="U29" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V29" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="W29" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
         <v>506.1786963984129</v>
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6551,10 +6551,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>577.2332497330343</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>333.7844730889342</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V32" t="n">
-        <v>333.7844730889342</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W32" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>118.5018269537981</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>899.5229907989976</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>333.7844730889342</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C35" t="n">
-        <v>333.7844730889342</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D35" t="n">
-        <v>333.7844730889342</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E35" t="n">
-        <v>333.7844730889342</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F35" t="n">
-        <v>333.7844730889342</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G35" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>577.2332497330343</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>333.7844730889342</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V35" t="n">
-        <v>333.7844730889342</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W35" t="n">
-        <v>333.7844730889342</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X35" t="n">
-        <v>333.7844730889342</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y35" t="n">
-        <v>333.7844730889342</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7022,7 +7022,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
         <v>486.8488635328713</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>193.7341723913397</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7134,10 +7134,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>333.7844730889342</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C38" t="n">
-        <v>333.7844730889342</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>333.7844730889342</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>333.7844730889342</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>333.7844730889342</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>333.7844730889342</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y38" t="n">
-        <v>333.7844730889342</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7259,46 +7259,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>913.4938269565423</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>678.3417187247995</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
         <v>19.28114311021272</v>
@@ -7362,22 +7362,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7447,16 +7447,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>426.8125075943781</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>426.8125075943781</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>277.8780979331268</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
         <v>20.03527576299844</v>
@@ -7496,46 +7496,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U42" t="n">
-        <v>634.6640077999109</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V42" t="n">
-        <v>634.6640077999109</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W42" t="n">
-        <v>634.6640077999109</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X42" t="n">
-        <v>426.8125075943781</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>426.8125075943781</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7593,19 +7593,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>333.7844730889342</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>333.7844730889342</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>333.7844730889342</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7736,43 +7736,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U45" t="n">
-        <v>914.2479596093278</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V45" t="n">
-        <v>679.0958513775852</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>435.6470747334852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>368.5691090902119</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>173.111405903722</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,7 +9494,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,10 +10670,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10907,7 +10907,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10916,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,7 +11144,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11153,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,19 +22549,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>315.8114241890584</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.0983162303811</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22719,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -22755,19 +22755,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,16 +22789,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>304.216063273003</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,28 +22828,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>340.8501824613893</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>59.87861993555995</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22947,7 +22947,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6629199992865</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23108,10 +23108,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>127.7557820643452</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>106.1975949617593</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="10">
@@ -23202,7 +23202,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>92.56872966899051</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23229,13 +23229,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.4700052756681</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>386.4218192980553</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23345,7 +23345,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>127.7557820643452</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23466,19 +23466,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U13" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>285.7325478889088</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>376.4311200835105</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>94.91917273398457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>175.8836868124217</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>167.5576696719377</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23709,16 +23709,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>304.5378186490225</v>
+        <v>399.0973997097602</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23816,16 +23816,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>24.76911442513227</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>136.2759056302994</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23943,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>199.2828334142263</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>299.3870928771938</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>137.0045586616288</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>117.13283663728</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24168,13 +24168,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>302.9738112079013</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24341,7 +24341,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>186.6629199992865</v>
       </c>
       <c r="G26" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>98.46051323810809</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,16 +24496,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24572,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>99.28696422016873</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24624,7 +24624,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>246.6952108678958</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>113.6687527430239</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y30" t="n">
-        <v>186.5272774155889</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>348.4813272950487</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25010,10 +25010,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>14.00696723134699</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>36.26901108812093</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>314.4203304066067</v>
+        <v>207.0389011273226</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25286,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>153.9285226410787</v>
       </c>
       <c r="X36" t="n">
-        <v>142.9094900234331</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>284.3390338194077</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25444,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25475,22 +25475,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>125.6477056446075</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25633,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25687,13 +25687,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W41" t="n">
-        <v>146.9462822885158</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25712,13 +25712,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>47.44989890035775</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>150.8536247525263</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>299.3870928771938</v>
+        <v>329.2548215453339</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>43.24093381563971</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,10 +26000,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770131</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498541.5625390694</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498541.5625390692</v>
+        <v>358671.2447770132</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223282</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="C2" t="n">
-        <v>91388.36989223282</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="D2" t="n">
-        <v>91388.3698922328</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="E2" t="n">
-        <v>91388.3698922328</v>
+        <v>65754.15294315934</v>
       </c>
       <c r="F2" t="n">
-        <v>91388.36989223282</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="G2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="K2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="L2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="M2" t="n">
         <v>91388.36989223283</v>
       </c>
-      <c r="M2" t="n">
-        <v>91388.36989223282</v>
-      </c>
       <c r="N2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.3698922328</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840839</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58427.45209245945</v>
+        <v>7172.021946512428</v>
       </c>
       <c r="C6" t="n">
-        <v>22341.97943908829</v>
+        <v>21961.72795075665</v>
       </c>
       <c r="D6" t="n">
-        <v>22341.97943908827</v>
+        <v>21961.72795075667</v>
       </c>
       <c r="E6" t="n">
-        <v>55969.57943908827</v>
+        <v>55589.32795075668</v>
       </c>
       <c r="F6" t="n">
-        <v>55969.57943908829</v>
+        <v>55589.32795075666</v>
       </c>
       <c r="G6" t="n">
-        <v>55969.57943908829</v>
+        <v>13003.35409665238</v>
       </c>
       <c r="H6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712472</v>
       </c>
       <c r="I6" t="n">
-        <v>55969.57943908828</v>
+        <v>66965.78899712472</v>
       </c>
       <c r="J6" t="n">
-        <v>-7090.36316001798</v>
+        <v>55418.87088713383</v>
       </c>
       <c r="K6" t="n">
-        <v>55969.57943908827</v>
+        <v>66965.78899712469</v>
       </c>
       <c r="L6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712468</v>
       </c>
       <c r="M6" t="n">
-        <v>55969.57943908828</v>
+        <v>66965.78899712472</v>
       </c>
       <c r="N6" t="n">
-        <v>55969.57943908828</v>
+        <v>66965.78899712469</v>
       </c>
       <c r="O6" t="n">
-        <v>55969.57943908828</v>
+        <v>19585.91077966088</v>
       </c>
       <c r="P6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712469</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>226.4350751681936</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>43.28534947792182</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>34.55702612384782</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35968,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,7 +36214,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36919,13 +36919,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37636,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37873,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
